--- a/dados/produtividade.xlsx
+++ b/dados/produtividade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9efed66cf84ee3b5/Área de Trabalho/Mestrado UFV/Disciplinas/FIP 606 Análise e Visualização de Dados em Fitopatologia/projeto-final/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9efed66cf84ee3b5/Documentos/GitHub/raphael.rosa/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{D0C7C3A3-38AF-4DAF-A528-24C55FC73A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7551237E-59D2-4C0C-88EE-AED49062C466}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{D0C7C3A3-38AF-4DAF-A528-24C55FC73A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C70043-C856-4481-8E3A-49167042D888}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9013E56F-6EF8-4EF3-AEFA-FEA59859053A}"/>
   </bookViews>
@@ -70,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -125,10 +131,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,930 +455,1004 @@
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>2146.6666666666665</v>
-      </c>
+      <c r="C2" s="8">
+        <v>2147</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
-        <v>1728.8888888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="8">
+        <v>1729</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>2133.3333333333335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="8">
+        <v>2133</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
-        <v>1942.2222222222222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <v>1942</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
-        <v>2697.7777777777778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>2698</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <v>2982.2222222222222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>2982</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>2400</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
-        <v>2044.4444444444443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>2044</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
-        <v>2084.4444444444443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <v>2084</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
-        <v>1951.1111111111111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <v>1951</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
-        <v>1693.3333333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <v>1693</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
-        <v>3244.4444444444443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="8">
+        <v>3244</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
-        <v>2702.2222222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="8">
+        <v>2702</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
-        <v>1555.5555555555557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="8">
+        <v>1556</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="5">
-        <v>2271.1111111111113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="8">
+        <v>2271</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="5">
-        <v>2186.6666666666665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <v>2187</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="5">
-        <v>1884.4444444444443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <v>1884</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="5">
-        <v>2791.1111111111113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <v>2791</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="5">
-        <v>2937.7777777777778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="8">
+        <v>2938</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="5">
-        <v>2422.2222222222226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="8">
+        <v>2422</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="5">
-        <v>2973.3333333333335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="8">
+        <v>2973</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="5">
-        <v>2480.0000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <v>2480</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
-        <v>2528.8888888888887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="8">
+        <v>2529</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="5">
-        <v>3506.6666666666665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="8">
+        <v>3507</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="5">
-        <v>2288.8888888888887</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="8">
+        <v>2289</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="5">
-        <v>1488.8888888888889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="8">
+        <v>1489</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="5">
-        <v>2444.4444444444448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
+        <v>2444</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
       </c>
-      <c r="C30" s="5">
-        <v>1777.7777777777778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="8">
+        <v>1778</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
       </c>
-      <c r="C31" s="5">
-        <v>3844.4444444444443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="8">
+        <v>3844</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="5">
-        <v>2408.8888888888891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="8">
+        <v>2409</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
-      <c r="C33" s="5">
-        <v>2031.1111111111111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="8">
+        <v>2031</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="C34" s="5">
-        <v>1982.2222222222222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="8">
+        <v>1982</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="5">
-        <v>2613.3333333333335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="8">
+        <v>2613</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
       </c>
-      <c r="C36" s="5">
-        <v>2480.0000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="8">
+        <v>2480</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
       </c>
-      <c r="C37" s="5">
-        <v>3084.4444444444443</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="8">
+        <v>3084</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>